--- a/public/templates/plantillaAdministracionOtrosActivos.xlsx
+++ b/public/templates/plantillaAdministracionOtrosActivos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrrme\Downloads\Otros Activos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrrme\Downloads\Actualizar Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5D0AE8B-747B-4D9A-B600-7BB1598CFC0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267A7A1B-CAE8-4C2F-805B-49CD7336F7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plantilla" sheetId="6" r:id="rId1"/>
@@ -20,12 +20,12 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="actividadeconomica">Configuracion!$E$3:$E$169</definedName>
+    <definedName name="actividadeconomica">Configuracion!$F$3:$F$169</definedName>
     <definedName name="CATALOGO_DE_GIRO_MERCANTIL">[1]Catalogos!$K$2:$K$137</definedName>
     <definedName name="CATALOGO_DE_PAISES">[1]Catalogos!$G$2:$G$250</definedName>
-    <definedName name="giro">Configuracion!$H$3:$H$138</definedName>
-    <definedName name="inmueble">Configuracion!$J$3:$J$21</definedName>
-    <definedName name="país">Configuracion!$C$3:$C$251</definedName>
+    <definedName name="giro">Configuracion!$I$3:$I$138</definedName>
+    <definedName name="inmueble">Configuracion!$K$3:$K$21</definedName>
+    <definedName name="país">Configuracion!$D$3:$D$251</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="962">
   <si>
     <t>Identificación de la persona Objeto de Aviso.</t>
   </si>
@@ -2925,6 +2925,12 @@
   </si>
   <si>
     <t>Datos de la Operación</t>
+  </si>
+  <si>
+    <t>route_param</t>
+  </si>
+  <si>
+    <t>other_assets_administration</t>
   </si>
 </sst>
 </file>
@@ -3227,16 +3233,22 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3246,12 +3258,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5253,7 +5259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BO103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5319,176 +5325,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16"/>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13"/>
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13"/>
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13" t="s">
         <v>610</v>
       </c>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16"/>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="20" t="s">
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13"/>
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13"/>
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="BG1" s="21"/>
-      <c r="BH1" s="21"/>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21"/>
+      <c r="BG1" s="17"/>
+      <c r="BH1" s="17"/>
+      <c r="BI1" s="17"/>
+      <c r="BJ1" s="17"/>
+      <c r="BK1" s="17"/>
+      <c r="BL1" s="17"/>
+      <c r="BM1" s="17"/>
+      <c r="BN1" s="17"/>
+      <c r="BO1" s="17"/>
     </row>
     <row r="2" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>684</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17" t="s">
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="18"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="16" t="s">
+      <c r="R2" s="20"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="13" t="s">
         <v>692</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16" t="s">
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16" t="s">
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13" t="s">
         <v>693</v>
       </c>
-      <c r="AH2" s="16"/>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16"/>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16" t="s">
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16" t="s">
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16"/>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16" t="s">
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13"/>
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16"/>
-      <c r="BC2" s="16" t="s">
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13"/>
+      <c r="BC2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="13" t="s">
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="14" t="s">
         <v>959</v>
       </c>
-      <c r="BG2" s="14"/>
-      <c r="BH2" s="15"/>
-      <c r="BI2" s="13" t="s">
+      <c r="BG2" s="15"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="BJ2" s="14"/>
-      <c r="BK2" s="14"/>
-      <c r="BL2" s="14"/>
-      <c r="BM2" s="14"/>
-      <c r="BN2" s="14"/>
-      <c r="BO2" s="14"/>
+      <c r="BJ2" s="15"/>
+      <c r="BK2" s="15"/>
+      <c r="BL2" s="15"/>
+      <c r="BM2" s="15"/>
+      <c r="BN2" s="15"/>
+      <c r="BO2" s="15"/>
     </row>
     <row r="3" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
@@ -12595,13 +12601,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AR2:AX2"/>
-    <mergeCell ref="AY2:BB2"/>
-    <mergeCell ref="BC2:BE2"/>
-    <mergeCell ref="AR1:BE1"/>
-    <mergeCell ref="BI2:BO2"/>
-    <mergeCell ref="BF1:BO1"/>
-    <mergeCell ref="BF2:BH2"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="Z2:AF2"/>
@@ -12612,6 +12611,13 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="T2:Y2"/>
     <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="AR2:AX2"/>
+    <mergeCell ref="AY2:BB2"/>
+    <mergeCell ref="BC2:BE2"/>
+    <mergeCell ref="AR1:BE1"/>
+    <mergeCell ref="BI2:BO2"/>
+    <mergeCell ref="BF1:BO1"/>
+    <mergeCell ref="BF2:BH2"/>
   </mergeCells>
   <dataValidations xWindow="361" yWindow="532" count="18">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de llenado" error="Se debe de seleccionar un país de la lista desplegable." promptTitle="Indicaciones" prompt="Seleccionar un país de la lista desplegable." sqref="J4:J103 O4:O103 BB4:BB103 AO4:AO103 AX4:AX103 AG4:AG103" xr:uid="{77D07380-CDBC-4B61-BE0E-7F01D8DE909F}">
@@ -12684,31 +12690,31 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="361" yWindow="532" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de llenado" error="Se debe de seleccionar un estado de la lista desplegable." promptTitle="Indicaciones" prompt="Se debe de seleccionar un estado de la lista desplegable." xr:uid="{92DEF0C1-E659-47ED-9AE5-21FCF8C7CA3C}">
           <x14:formula1>
-            <xm:f>Configuracion!$O$3:$O$34</xm:f>
+            <xm:f>Configuracion!$P$3:$P$34</xm:f>
           </x14:formula1>
           <xm:sqref>AA4:AA103</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error de llenado" error="Se debe de seleccionar una prioridad de aviso de la lista desplegable." promptTitle="Indicaciones" prompt="Seleccionar una prioridad de aviso de la lista desplegable." xr:uid="{F9F2156D-6075-44E6-9E56-D91CCC46555B}">
           <x14:formula1>
-            <xm:f>Configuracion!$B$3:$B$4</xm:f>
+            <xm:f>Configuracion!$C$3:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>C4:C103</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E0E13FDA-2825-4356-B816-2D19D63DE6BE}">
           <x14:formula1>
-            <xm:f>Configuracion!$Q$3:$Q$19</xm:f>
+            <xm:f>Configuracion!$R$3:$R$19</xm:f>
           </x14:formula1>
-          <xm:sqref>BJ4:BJ6 BJ8:BJ103 BL7</xm:sqref>
+          <xm:sqref>BJ4:BJ6 BL7 BJ8:BJ103</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7E1D6435-277F-400F-82A2-4BEE13F51984}">
           <x14:formula1>
-            <xm:f>Configuracion!$S$3:$S$53</xm:f>
+            <xm:f>Configuracion!$T$3:$T$53</xm:f>
           </x14:formula1>
-          <xm:sqref>BK4:BK6 BK8:BK103 BM7</xm:sqref>
+          <xm:sqref>BK4:BK6 BM7 BK8:BK103</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F7021DA4-2C82-4418-B5BD-AF6FD10E1783}">
           <x14:formula1>
-            <xm:f>Configuracion!$U$3:$U$186</xm:f>
+            <xm:f>Configuracion!$V$3:$V$186</xm:f>
           </x14:formula1>
           <xm:sqref>BN4:BN6 BN8:BN103</xm:sqref>
         </x14:dataValidation>
@@ -12720,3230 +12726,3237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:U251"/>
+  <dimension ref="A2:V251"/>
   <sheetViews>
-    <sheetView topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>961</v>
+      </c>
+      <c r="B3" t="s">
         <v>649</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>689</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>287</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>287</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>590</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>615</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>651</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>702</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>720</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>650</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>690</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>288</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>455</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>591</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>616</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>617</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>652</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>703</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>721</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>289</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>456</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>592</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>619</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>653</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>704</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>722</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>290</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>457</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>593</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="M6" s="7" t="s">
         <v>620</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>621</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>654</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>705</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>723</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>291</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>458</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>594</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>622</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>623</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>655</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>706</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>724</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>292</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>459</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>595</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>625</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>656</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>707</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>725</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+    <row r="9" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>43</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>293</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>460</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>596</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>627</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>657</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>708</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>726</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+    <row r="10" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>44</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>294</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>461</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>597</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7" t="s">
         <v>628</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>629</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>658</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>709</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>727</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+    <row r="11" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>295</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>462</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>598</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>631</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>659</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>710</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>728</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+    <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>296</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>463</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>599</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>633</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>660</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>711</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>729</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+    <row r="13" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>47</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>297</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>464</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>600</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>635</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>661</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>712</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>730</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+    <row r="14" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>48</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>298</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>465</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>601</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>637</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>662</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>713</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>731</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="15" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>299</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>466</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>602</v>
       </c>
-      <c r="L15" s="7" t="s">
+      <c r="M15" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>639</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>663</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>714</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>732</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="16" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>50</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>300</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>467</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>603</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7" t="s">
         <v>640</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>641</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>664</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>715</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>733</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="17" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="17" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>301</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>468</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>604</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>643</v>
       </c>
-      <c r="O17" t="s">
+      <c r="P17" t="s">
         <v>665</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="R17" t="s">
         <v>716</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>734</v>
       </c>
-      <c r="U17" t="s">
+      <c r="V17" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="18" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="18" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>302</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>469</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>605</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="M18" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>645</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>666</v>
       </c>
-      <c r="Q18" t="s">
+      <c r="R18" t="s">
         <v>717</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>735</v>
       </c>
-      <c r="U18" t="s">
+      <c r="V18" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="19" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="19" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>303</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>470</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>606</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7" t="s">
         <v>646</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>647</v>
       </c>
-      <c r="O19" t="s">
+      <c r="P19" t="s">
         <v>667</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="R19" t="s">
         <v>718</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>736</v>
       </c>
-      <c r="U19" t="s">
+      <c r="V19" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="20" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="20" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>54</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>304</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>471</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>607</v>
       </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>668</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>737</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="21" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="21" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
         <v>55</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>305</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>472</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>608</v>
       </c>
-      <c r="O21" t="s">
+      <c r="P21" t="s">
         <v>669</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>738</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="22" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
+    <row r="22" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>306</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>473</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>670</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>739</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="23" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="23" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>307</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>474</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>671</v>
       </c>
-      <c r="S23" t="s">
+      <c r="T23" t="s">
         <v>740</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="24" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="24" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>58</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>308</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>475</v>
       </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
         <v>672</v>
       </c>
-      <c r="S24" t="s">
+      <c r="T24" t="s">
         <v>741</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="25" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
+    <row r="25" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>59</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>309</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>476</v>
       </c>
-      <c r="O25" t="s">
+      <c r="P25" t="s">
         <v>673</v>
       </c>
-      <c r="S25" t="s">
+      <c r="T25" t="s">
         <v>742</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="26" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
+    <row r="26" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
         <v>60</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>310</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>477</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>674</v>
       </c>
-      <c r="S26" t="s">
+      <c r="T26" t="s">
         <v>743</v>
       </c>
-      <c r="U26" t="s">
+      <c r="V26" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="27" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
+    <row r="27" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
         <v>61</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>311</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>478</v>
       </c>
-      <c r="O27" t="s">
+      <c r="P27" t="s">
         <v>675</v>
       </c>
-      <c r="S27" t="s">
+      <c r="T27" t="s">
         <v>744</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="28" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
+    <row r="28" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
         <v>62</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>312</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>479</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>676</v>
       </c>
-      <c r="S28" t="s">
+      <c r="T28" t="s">
         <v>745</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="29" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
+    <row r="29" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>63</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>313</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>480</v>
       </c>
-      <c r="O29" t="s">
+      <c r="P29" t="s">
         <v>677</v>
       </c>
-      <c r="S29" t="s">
+      <c r="T29" t="s">
         <v>746</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="30" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
+    <row r="30" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
         <v>64</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>314</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>481</v>
       </c>
-      <c r="O30" t="s">
+      <c r="P30" t="s">
         <v>678</v>
       </c>
-      <c r="S30" t="s">
+      <c r="T30" t="s">
         <v>747</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="31" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
+    <row r="31" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>315</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>482</v>
       </c>
-      <c r="O31" t="s">
+      <c r="P31" t="s">
         <v>679</v>
       </c>
-      <c r="S31" t="s">
+      <c r="T31" t="s">
         <v>748</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="32" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
+    <row r="32" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
         <v>66</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>316</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>483</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>680</v>
       </c>
-      <c r="S32" t="s">
+      <c r="T32" t="s">
         <v>749</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="33" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
+    <row r="33" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
         <v>67</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>317</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>484</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>681</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>750</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="34" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
+    <row r="34" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
         <v>68</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>318</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>485</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>682</v>
       </c>
-      <c r="S34" t="s">
+      <c r="T34" t="s">
         <v>751</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="35" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
+    <row r="35" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
         <v>69</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>319</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>486</v>
       </c>
-      <c r="S35" t="s">
+      <c r="T35" t="s">
         <v>752</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="36" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
+    <row r="36" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>320</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>487</v>
       </c>
-      <c r="S36" t="s">
+      <c r="T36" t="s">
         <v>753</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="37" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
+    <row r="37" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
         <v>71</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>321</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>488</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
         <v>754</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="38" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="38" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>72</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>322</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>489</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>755</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="39" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="39" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>73</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>323</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>490</v>
       </c>
-      <c r="S39" t="s">
+      <c r="T39" t="s">
         <v>756</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="40" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
+    <row r="40" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>74</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>324</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>491</v>
       </c>
-      <c r="S40" t="s">
+      <c r="T40" t="s">
         <v>757</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="41" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
+    <row r="41" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
         <v>75</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>325</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>492</v>
       </c>
-      <c r="S41" t="s">
+      <c r="T41" t="s">
         <v>758</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="42" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
+    <row r="42" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
         <v>76</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>326</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>493</v>
       </c>
-      <c r="S42" t="s">
+      <c r="T42" t="s">
         <v>759</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="43" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+    <row r="43" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>77</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>327</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>494</v>
       </c>
-      <c r="S43" t="s">
+      <c r="T43" t="s">
         <v>760</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="44" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
+    <row r="44" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>78</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>328</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>495</v>
       </c>
-      <c r="S44" t="s">
+      <c r="T44" t="s">
         <v>761</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="45" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
+    <row r="45" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
         <v>79</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>329</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>496</v>
       </c>
-      <c r="S45" t="s">
+      <c r="T45" t="s">
         <v>762</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="46" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
+    <row r="46" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
         <v>80</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>330</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>497</v>
       </c>
-      <c r="S46" t="s">
+      <c r="T46" t="s">
         <v>763</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="47" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
+    <row r="47" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
         <v>81</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>331</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>498</v>
       </c>
-      <c r="S47" t="s">
+      <c r="T47" t="s">
         <v>764</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="48" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
+    <row r="48" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>82</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>332</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>499</v>
       </c>
-      <c r="S48" t="s">
+      <c r="T48" t="s">
         <v>765</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="49" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
+    <row r="49" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
         <v>83</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>333</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>500</v>
       </c>
-      <c r="S49" t="s">
+      <c r="T49" t="s">
         <v>766</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="50" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
+    <row r="50" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
         <v>84</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>334</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>501</v>
       </c>
-      <c r="S50" t="s">
+      <c r="T50" t="s">
         <v>767</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="51" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
+    <row r="51" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
         <v>85</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>335</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>502</v>
       </c>
-      <c r="S51" t="s">
+      <c r="T51" t="s">
         <v>768</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="52" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
+    <row r="52" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
         <v>86</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>336</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>503</v>
       </c>
-      <c r="S52" t="s">
+      <c r="T52" t="s">
         <v>769</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="53" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
+    <row r="53" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
         <v>87</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>337</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>504</v>
       </c>
-      <c r="S53" t="s">
+      <c r="T53" t="s">
         <v>770</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="54" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
+    <row r="54" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
         <v>88</v>
       </c>
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>338</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>505</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="55" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
+    <row r="55" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
         <v>89</v>
       </c>
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>339</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>506</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="56" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
+    <row r="56" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
         <v>90</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>340</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>507</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="57" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
+    <row r="57" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
         <v>91</v>
       </c>
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>341</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>508</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="58" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
+    <row r="58" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
         <v>92</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>342</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>509</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="59" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
+    <row r="59" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
         <v>93</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>343</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>510</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="60" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
+    <row r="60" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
         <v>94</v>
       </c>
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>344</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>511</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="61" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
+    <row r="61" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
         <v>95</v>
       </c>
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>345</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>512</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="62" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
+    <row r="62" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
         <v>96</v>
       </c>
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>346</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>513</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="63" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
+    <row r="63" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>97</v>
       </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>347</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>514</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="64" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
+    <row r="64" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
         <v>98</v>
       </c>
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>348</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>515</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="65" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
+    <row r="65" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
         <v>99</v>
       </c>
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>349</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>516</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="66" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
+    <row r="66" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
         <v>100</v>
       </c>
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>350</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>517</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="67" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
+    <row r="67" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
         <v>101</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>351</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>518</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="68" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
+    <row r="68" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
         <v>102</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>352</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>519</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="69" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
+    <row r="69" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
         <v>103</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>353</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>520</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="70" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
+    <row r="70" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
         <v>104</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>354</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>521</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="71" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
+    <row r="71" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
         <v>105</v>
       </c>
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>355</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>522</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="72" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
+    <row r="72" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
         <v>106</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>356</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>523</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="73" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
+    <row r="73" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
         <v>107</v>
       </c>
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>357</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>524</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="74" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
+    <row r="74" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
         <v>108</v>
       </c>
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>358</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>525</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="75" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
+    <row r="75" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
         <v>109</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>359</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>526</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="76" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
+    <row r="76" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
         <v>110</v>
       </c>
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>360</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>527</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="77" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
+    <row r="77" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
         <v>111</v>
       </c>
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>361</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>528</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="78" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
+    <row r="78" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
         <v>112</v>
       </c>
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>362</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>529</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="79" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
+    <row r="79" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
         <v>113</v>
       </c>
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>363</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>530</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="80" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
+    <row r="80" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
         <v>114</v>
       </c>
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>364</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>531</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="81" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" t="s">
+    <row r="81" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
         <v>115</v>
       </c>
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>365</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>532</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="82" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" t="s">
+    <row r="82" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
         <v>116</v>
       </c>
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>366</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>533</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="83" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C83" t="s">
+    <row r="83" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>117</v>
       </c>
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>367</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>534</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="84" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C84" t="s">
+    <row r="84" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
         <v>118</v>
       </c>
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>368</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>535</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="85" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C85" t="s">
+    <row r="85" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
         <v>119</v>
       </c>
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>369</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>536</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="86" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C86" t="s">
+    <row r="86" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
         <v>120</v>
       </c>
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>370</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>537</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="87" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C87" t="s">
+    <row r="87" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
         <v>121</v>
       </c>
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>371</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>538</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="88" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C88" t="s">
+    <row r="88" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
         <v>122</v>
       </c>
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>372</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>539</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="89" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C89" t="s">
+    <row r="89" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
         <v>123</v>
       </c>
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>373</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>540</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="90" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
+    <row r="90" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
         <v>124</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>374</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>541</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="91" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
+    <row r="91" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
         <v>125</v>
       </c>
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>375</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>542</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="92" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C92" t="s">
+    <row r="92" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
         <v>126</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>376</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>543</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="93" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" t="s">
+    <row r="93" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
         <v>127</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>377</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>544</v>
       </c>
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="94" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" t="s">
+    <row r="94" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
         <v>128</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>378</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>545</v>
       </c>
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="95" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
+    <row r="95" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
         <v>129</v>
       </c>
-      <c r="E95" t="s">
+      <c r="F95" t="s">
         <v>379</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>546</v>
       </c>
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="96" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C96" t="s">
+    <row r="96" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>130</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F96" t="s">
         <v>380</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>547</v>
       </c>
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="97" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
+    <row r="97" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
         <v>131</v>
       </c>
-      <c r="E97" t="s">
+      <c r="F97" t="s">
         <v>381</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>548</v>
       </c>
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="98" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C98" t="s">
+    <row r="98" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
         <v>132</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>382</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>549</v>
       </c>
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="99" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C99" t="s">
+    <row r="99" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
         <v>133</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>383</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>550</v>
       </c>
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="100" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C100" t="s">
+    <row r="100" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
         <v>134</v>
       </c>
-      <c r="E100" t="s">
+      <c r="F100" t="s">
         <v>384</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>551</v>
       </c>
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="101" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C101" t="s">
+    <row r="101" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
         <v>135</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>385</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>552</v>
       </c>
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="102" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C102" t="s">
+    <row r="102" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
         <v>136</v>
       </c>
-      <c r="E102" t="s">
+      <c r="F102" t="s">
         <v>386</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>553</v>
       </c>
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="103" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C103" t="s">
+    <row r="103" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
         <v>137</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>387</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>554</v>
       </c>
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="104" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C104" t="s">
+    <row r="104" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
         <v>138</v>
       </c>
-      <c r="E104" t="s">
+      <c r="F104" t="s">
         <v>388</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>555</v>
       </c>
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="105" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
+    <row r="105" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
         <v>139</v>
       </c>
-      <c r="E105" t="s">
+      <c r="F105" t="s">
         <v>389</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>556</v>
       </c>
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="106" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
+    <row r="106" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
         <v>140</v>
       </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>390</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>557</v>
       </c>
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="107" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
+    <row r="107" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
         <v>141</v>
       </c>
-      <c r="E107" t="s">
+      <c r="F107" t="s">
         <v>391</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>558</v>
       </c>
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="108" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
+    <row r="108" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
         <v>142</v>
       </c>
-      <c r="E108" t="s">
+      <c r="F108" t="s">
         <v>392</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>559</v>
       </c>
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="109" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
+    <row r="109" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
         <v>143</v>
       </c>
-      <c r="E109" t="s">
+      <c r="F109" t="s">
         <v>393</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>560</v>
       </c>
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="110" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
+    <row r="110" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
         <v>144</v>
       </c>
-      <c r="E110" t="s">
+      <c r="F110" t="s">
         <v>394</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>561</v>
       </c>
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="111" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
+    <row r="111" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
         <v>145</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>395</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>562</v>
       </c>
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="112" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C112" t="s">
+    <row r="112" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
         <v>146</v>
       </c>
-      <c r="E112" t="s">
+      <c r="F112" t="s">
         <v>396</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>563</v>
       </c>
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="113" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C113" t="s">
+    <row r="113" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
         <v>147</v>
       </c>
-      <c r="E113" t="s">
+      <c r="F113" t="s">
         <v>397</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>564</v>
       </c>
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="114" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C114" t="s">
+    <row r="114" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
         <v>148</v>
       </c>
-      <c r="E114" t="s">
+      <c r="F114" t="s">
         <v>398</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>565</v>
       </c>
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="115" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C115" t="s">
+    <row r="115" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
         <v>149</v>
       </c>
-      <c r="E115" t="s">
+      <c r="F115" t="s">
         <v>399</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>566</v>
       </c>
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="116" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C116" t="s">
+    <row r="116" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
         <v>150</v>
       </c>
-      <c r="E116" t="s">
+      <c r="F116" t="s">
         <v>400</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>567</v>
       </c>
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="117" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C117" t="s">
+    <row r="117" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
         <v>151</v>
       </c>
-      <c r="E117" t="s">
+      <c r="F117" t="s">
         <v>401</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>568</v>
       </c>
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="118" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
+    <row r="118" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
         <v>152</v>
       </c>
-      <c r="E118" t="s">
+      <c r="F118" t="s">
         <v>402</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>569</v>
       </c>
-      <c r="U118" t="s">
+      <c r="V118" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="119" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C119" t="s">
+    <row r="119" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
         <v>153</v>
       </c>
-      <c r="E119" t="s">
+      <c r="F119" t="s">
         <v>403</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>570</v>
       </c>
-      <c r="U119" t="s">
+      <c r="V119" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="120" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" t="s">
+    <row r="120" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
         <v>154</v>
       </c>
-      <c r="E120" t="s">
+      <c r="F120" t="s">
         <v>404</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>571</v>
       </c>
-      <c r="U120" t="s">
+      <c r="V120" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="121" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" t="s">
+    <row r="121" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
         <v>155</v>
       </c>
-      <c r="E121" t="s">
+      <c r="F121" t="s">
         <v>405</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>572</v>
       </c>
-      <c r="U121" t="s">
+      <c r="V121" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="122" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
+    <row r="122" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
         <v>156</v>
       </c>
-      <c r="E122" t="s">
+      <c r="F122" t="s">
         <v>406</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>573</v>
       </c>
-      <c r="U122" t="s">
+      <c r="V122" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="123" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
+    <row r="123" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
         <v>157</v>
       </c>
-      <c r="E123" t="s">
+      <c r="F123" t="s">
         <v>407</v>
       </c>
-      <c r="H123" t="s">
+      <c r="I123" t="s">
         <v>574</v>
       </c>
-      <c r="U123" t="s">
+      <c r="V123" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="124" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
+    <row r="124" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
         <v>158</v>
       </c>
-      <c r="E124" t="s">
+      <c r="F124" t="s">
         <v>408</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>575</v>
       </c>
-      <c r="U124" t="s">
+      <c r="V124" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="125" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
+    <row r="125" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
         <v>159</v>
       </c>
-      <c r="E125" t="s">
+      <c r="F125" t="s">
         <v>409</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>576</v>
       </c>
-      <c r="U125" t="s">
+      <c r="V125" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="126" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
+    <row r="126" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
         <v>160</v>
       </c>
-      <c r="E126" t="s">
+      <c r="F126" t="s">
         <v>410</v>
       </c>
-      <c r="H126" t="s">
+      <c r="I126" t="s">
         <v>577</v>
       </c>
-      <c r="U126" t="s">
+      <c r="V126" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="127" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
+    <row r="127" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
         <v>161</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>411</v>
       </c>
-      <c r="H127" t="s">
+      <c r="I127" t="s">
         <v>578</v>
       </c>
-      <c r="U127" t="s">
+      <c r="V127" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="128" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" t="s">
+    <row r="128" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
         <v>162</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>412</v>
       </c>
-      <c r="H128" t="s">
+      <c r="I128" t="s">
         <v>579</v>
       </c>
-      <c r="U128" t="s">
+      <c r="V128" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="129" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
+    <row r="129" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
         <v>163</v>
       </c>
-      <c r="E129" t="s">
+      <c r="F129" t="s">
         <v>413</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>580</v>
       </c>
-      <c r="U129" t="s">
+      <c r="V129" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="130" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C130" t="s">
+    <row r="130" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
         <v>164</v>
       </c>
-      <c r="E130" t="s">
+      <c r="F130" t="s">
         <v>414</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>581</v>
       </c>
-      <c r="U130" t="s">
+      <c r="V130" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="131" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C131" t="s">
+    <row r="131" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
         <v>165</v>
       </c>
-      <c r="E131" t="s">
+      <c r="F131" t="s">
         <v>415</v>
       </c>
-      <c r="H131" t="s">
+      <c r="I131" t="s">
         <v>582</v>
       </c>
-      <c r="U131" t="s">
+      <c r="V131" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="132" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C132" t="s">
+    <row r="132" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
         <v>166</v>
       </c>
-      <c r="E132" t="s">
+      <c r="F132" t="s">
         <v>416</v>
       </c>
-      <c r="H132" t="s">
+      <c r="I132" t="s">
         <v>583</v>
       </c>
-      <c r="U132" t="s">
+      <c r="V132" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="133" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C133" t="s">
+    <row r="133" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
         <v>167</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>417</v>
       </c>
-      <c r="H133" t="s">
+      <c r="I133" t="s">
         <v>584</v>
       </c>
-      <c r="U133" t="s">
+      <c r="V133" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="134" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C134" t="s">
+    <row r="134" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
         <v>168</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>418</v>
       </c>
-      <c r="H134" t="s">
+      <c r="I134" t="s">
         <v>585</v>
       </c>
-      <c r="U134" t="s">
+      <c r="V134" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="135" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
+    <row r="135" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
         <v>169</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>419</v>
       </c>
-      <c r="H135" t="s">
+      <c r="I135" t="s">
         <v>586</v>
       </c>
-      <c r="U135" t="s">
+      <c r="V135" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="136" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C136" t="s">
+    <row r="136" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
         <v>170</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>420</v>
       </c>
-      <c r="H136" t="s">
+      <c r="I136" t="s">
         <v>587</v>
       </c>
-      <c r="U136" t="s">
+      <c r="V136" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="137" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C137" t="s">
+    <row r="137" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
         <v>171</v>
       </c>
-      <c r="E137" t="s">
+      <c r="F137" t="s">
         <v>421</v>
       </c>
-      <c r="H137" t="s">
+      <c r="I137" t="s">
         <v>588</v>
       </c>
-      <c r="U137" t="s">
+      <c r="V137" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="138" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C138" t="s">
+    <row r="138" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
         <v>172</v>
       </c>
-      <c r="E138" t="s">
+      <c r="F138" t="s">
         <v>422</v>
       </c>
-      <c r="H138" t="s">
+      <c r="I138" t="s">
         <v>589</v>
       </c>
-      <c r="U138" t="s">
+      <c r="V138" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="139" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
+    <row r="139" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
         <v>173</v>
       </c>
-      <c r="E139" t="s">
+      <c r="F139" t="s">
         <v>423</v>
       </c>
-      <c r="U139" t="s">
+      <c r="V139" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="140" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C140" t="s">
+    <row r="140" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
         <v>174</v>
       </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>424</v>
       </c>
-      <c r="U140" t="s">
+      <c r="V140" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="141" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C141" t="s">
+    <row r="141" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
         <v>175</v>
       </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>425</v>
       </c>
-      <c r="U141" t="s">
+      <c r="V141" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="142" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C142" t="s">
+    <row r="142" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
         <v>176</v>
       </c>
-      <c r="E142" t="s">
+      <c r="F142" t="s">
         <v>426</v>
       </c>
-      <c r="U142" t="s">
+      <c r="V142" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="143" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
+    <row r="143" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
         <v>177</v>
       </c>
-      <c r="E143" t="s">
+      <c r="F143" t="s">
         <v>427</v>
       </c>
-      <c r="U143" t="s">
+      <c r="V143" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="144" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C144" t="s">
+    <row r="144" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
         <v>178</v>
       </c>
-      <c r="E144" t="s">
+      <c r="F144" t="s">
         <v>428</v>
       </c>
-      <c r="U144" t="s">
+      <c r="V144" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="145" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C145" t="s">
+    <row r="145" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
         <v>179</v>
       </c>
-      <c r="E145" t="s">
+      <c r="F145" t="s">
         <v>429</v>
       </c>
-      <c r="U145" t="s">
+      <c r="V145" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="146" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C146" t="s">
+    <row r="146" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
         <v>180</v>
       </c>
-      <c r="E146" t="s">
+      <c r="F146" t="s">
         <v>430</v>
       </c>
-      <c r="U146" t="s">
+      <c r="V146" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="147" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C147" t="s">
+    <row r="147" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
         <v>181</v>
       </c>
-      <c r="E147" t="s">
+      <c r="F147" t="s">
         <v>431</v>
       </c>
-      <c r="U147" t="s">
+      <c r="V147" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="148" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C148" t="s">
+    <row r="148" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
         <v>182</v>
       </c>
-      <c r="E148" t="s">
+      <c r="F148" t="s">
         <v>432</v>
       </c>
-      <c r="U148" t="s">
+      <c r="V148" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="149" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C149" t="s">
+    <row r="149" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
         <v>183</v>
       </c>
-      <c r="E149" t="s">
+      <c r="F149" t="s">
         <v>433</v>
       </c>
-      <c r="U149" t="s">
+      <c r="V149" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="150" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C150" t="s">
+    <row r="150" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
         <v>184</v>
       </c>
-      <c r="E150" t="s">
+      <c r="F150" t="s">
         <v>434</v>
       </c>
-      <c r="U150" t="s">
+      <c r="V150" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="151" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
+    <row r="151" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
         <v>185</v>
       </c>
-      <c r="E151" t="s">
+      <c r="F151" t="s">
         <v>435</v>
       </c>
-      <c r="U151" t="s">
+      <c r="V151" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="152" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C152" t="s">
+    <row r="152" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
         <v>186</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>436</v>
       </c>
-      <c r="U152" t="s">
+      <c r="V152" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="153" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C153" t="s">
+    <row r="153" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
         <v>187</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>437</v>
       </c>
-      <c r="U153" t="s">
+      <c r="V153" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="154" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
+    <row r="154" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
         <v>188</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>438</v>
       </c>
-      <c r="U154" t="s">
+      <c r="V154" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="155" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C155" t="s">
+    <row r="155" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
         <v>189</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>439</v>
       </c>
-      <c r="U155" t="s">
+      <c r="V155" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="156" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C156" t="s">
+    <row r="156" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
         <v>190</v>
       </c>
-      <c r="E156" t="s">
+      <c r="F156" t="s">
         <v>440</v>
       </c>
-      <c r="U156" t="s">
+      <c r="V156" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="157" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C157" t="s">
+    <row r="157" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
         <v>191</v>
       </c>
-      <c r="E157" t="s">
+      <c r="F157" t="s">
         <v>441</v>
       </c>
-      <c r="U157" t="s">
+      <c r="V157" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="158" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C158" t="s">
+    <row r="158" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
         <v>192</v>
       </c>
-      <c r="E158" t="s">
+      <c r="F158" t="s">
         <v>442</v>
       </c>
-      <c r="U158" t="s">
+      <c r="V158" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="159" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C159" t="s">
+    <row r="159" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
         <v>193</v>
       </c>
-      <c r="E159" t="s">
+      <c r="F159" t="s">
         <v>443</v>
       </c>
-      <c r="U159" t="s">
+      <c r="V159" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="160" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C160" t="s">
+    <row r="160" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
         <v>194</v>
       </c>
-      <c r="E160" t="s">
+      <c r="F160" t="s">
         <v>444</v>
       </c>
-      <c r="U160" t="s">
+      <c r="V160" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="161" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C161" t="s">
+    <row r="161" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
         <v>195</v>
       </c>
-      <c r="E161" t="s">
+      <c r="F161" t="s">
         <v>445</v>
       </c>
-      <c r="U161" t="s">
+      <c r="V161" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="162" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C162" t="s">
+    <row r="162" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
         <v>196</v>
       </c>
-      <c r="E162" t="s">
+      <c r="F162" t="s">
         <v>446</v>
       </c>
-      <c r="U162" t="s">
+      <c r="V162" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="163" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C163" t="s">
+    <row r="163" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
         <v>197</v>
       </c>
-      <c r="E163" t="s">
+      <c r="F163" t="s">
         <v>447</v>
       </c>
-      <c r="U163" t="s">
+      <c r="V163" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="164" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C164" t="s">
+    <row r="164" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
         <v>198</v>
       </c>
-      <c r="E164" t="s">
+      <c r="F164" t="s">
         <v>448</v>
       </c>
-      <c r="U164" t="s">
+      <c r="V164" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="165" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C165" t="s">
+    <row r="165" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
         <v>199</v>
       </c>
-      <c r="E165" t="s">
+      <c r="F165" t="s">
         <v>449</v>
       </c>
-      <c r="U165" t="s">
+      <c r="V165" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="166" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C166" t="s">
+    <row r="166" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
         <v>200</v>
       </c>
-      <c r="E166" t="s">
+      <c r="F166" t="s">
         <v>450</v>
       </c>
-      <c r="U166" t="s">
+      <c r="V166" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="167" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C167" t="s">
+    <row r="167" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
         <v>201</v>
       </c>
-      <c r="E167" t="s">
+      <c r="F167" t="s">
         <v>451</v>
       </c>
-      <c r="U167" t="s">
+      <c r="V167" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="168" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C168" t="s">
+    <row r="168" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
         <v>202</v>
       </c>
-      <c r="E168" t="s">
+      <c r="F168" t="s">
         <v>452</v>
       </c>
-      <c r="U168" t="s">
+      <c r="V168" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="169" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C169" t="s">
+    <row r="169" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
         <v>203</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>453</v>
       </c>
-      <c r="U169" t="s">
+      <c r="V169" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="170" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C170" t="s">
+    <row r="170" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
         <v>204</v>
       </c>
-      <c r="U170" t="s">
+      <c r="V170" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="171" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C171" t="s">
+    <row r="171" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
         <v>205</v>
       </c>
-      <c r="U171" t="s">
+      <c r="V171" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="172" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C172" t="s">
+    <row r="172" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
         <v>206</v>
       </c>
-      <c r="U172" t="s">
+      <c r="V172" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="173" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C173" t="s">
+    <row r="173" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
         <v>207</v>
       </c>
-      <c r="U173" t="s">
+      <c r="V173" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="174" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C174" t="s">
+    <row r="174" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D174" t="s">
         <v>208</v>
       </c>
-      <c r="U174" t="s">
+      <c r="V174" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="175" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
+    <row r="175" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
         <v>209</v>
       </c>
-      <c r="U175" t="s">
+      <c r="V175" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="176" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C176" t="s">
+    <row r="176" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D176" t="s">
         <v>210</v>
       </c>
-      <c r="U176" t="s">
+      <c r="V176" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="177" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C177" t="s">
+    <row r="177" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
         <v>211</v>
       </c>
-      <c r="U177" t="s">
+      <c r="V177" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="178" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C178" t="s">
+    <row r="178" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D178" t="s">
         <v>212</v>
       </c>
-      <c r="U178" t="s">
+      <c r="V178" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="179" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C179" t="s">
+    <row r="179" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D179" t="s">
         <v>213</v>
       </c>
-      <c r="U179" t="s">
+      <c r="V179" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="180" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C180" t="s">
+    <row r="180" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
         <v>214</v>
       </c>
-      <c r="U180" t="s">
+      <c r="V180" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="181" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C181" t="s">
+    <row r="181" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D181" t="s">
         <v>215</v>
       </c>
-      <c r="U181" t="s">
+      <c r="V181" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="182" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C182" t="s">
+    <row r="182" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D182" t="s">
         <v>216</v>
       </c>
-      <c r="U182" t="s">
+      <c r="V182" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="183" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C183" t="s">
+    <row r="183" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D183" t="s">
         <v>217</v>
       </c>
-      <c r="U183" t="s">
+      <c r="V183" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="184" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C184" t="s">
+    <row r="184" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D184" t="s">
         <v>218</v>
       </c>
-      <c r="U184" t="s">
+      <c r="V184" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="185" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C185" t="s">
+    <row r="185" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D185" t="s">
         <v>219</v>
       </c>
-      <c r="U185" t="s">
+      <c r="V185" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="186" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C186" t="s">
+    <row r="186" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D186" t="s">
         <v>220</v>
       </c>
-      <c r="U186" t="s">
+      <c r="V186" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="187" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C187" t="s">
+    <row r="187" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D187" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="188" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C188" t="s">
+    <row r="188" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D188" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="189" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C189" t="s">
+    <row r="189" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D189" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="190" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C190" t="s">
+    <row r="190" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D190" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="191" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C191" t="s">
+    <row r="191" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="192" spans="3:21" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C192" t="s">
+    <row r="192" spans="4:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="193" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C193" t="s">
+    <row r="193" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D193" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="194" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C194" t="s">
+    <row r="194" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D194" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="195" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C195" t="s">
+    <row r="195" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D195" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="196" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C196" t="s">
+    <row r="196" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D196" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="197" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C197" t="s">
+    <row r="197" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D197" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="198" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C198" t="s">
+    <row r="198" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="199" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C199" t="s">
+    <row r="199" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D199" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="200" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C200" t="s">
+    <row r="200" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="201" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C201" t="s">
+    <row r="201" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D201" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="202" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C202" t="s">
+    <row r="202" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="203" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C203" t="s">
+    <row r="203" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="204" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C204" t="s">
+    <row r="204" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="205" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C205" t="s">
+    <row r="205" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="206" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C206" t="s">
+    <row r="206" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="207" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C207" t="s">
+    <row r="207" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="208" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C208" t="s">
+    <row r="208" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="209" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C209" t="s">
+    <row r="209" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="210" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C210" t="s">
+    <row r="210" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="211" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C211" t="s">
+    <row r="211" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="212" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C212" t="s">
+    <row r="212" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="213" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C213" t="s">
+    <row r="213" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="214" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C214" t="s">
+    <row r="214" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="215" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C215" t="s">
+    <row r="215" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="216" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C216" t="s">
+    <row r="216" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="217" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C217" t="s">
+    <row r="217" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="218" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C218" t="s">
+    <row r="218" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D218" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="219" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C219" t="s">
+    <row r="219" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D219" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="220" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C220" t="s">
+    <row r="220" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D220" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="221" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C221" t="s">
+    <row r="221" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D221" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="222" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C222" t="s">
+    <row r="222" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D222" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="223" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C223" t="s">
+    <row r="223" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D223" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="224" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C224" t="s">
+    <row r="224" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D224" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="225" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C225" t="s">
+    <row r="225" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D225" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="226" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C226" t="s">
+    <row r="226" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D226" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="227" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C227" t="s">
+    <row r="227" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D227" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="228" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C228" t="s">
+    <row r="228" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D228" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="229" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C229" t="s">
+    <row r="229" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D229" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="230" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C230" t="s">
+    <row r="230" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D230" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="231" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C231" t="s">
+    <row r="231" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D231" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="232" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C232" t="s">
+    <row r="232" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="233" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C233" t="s">
+    <row r="233" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="234" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C234" t="s">
+    <row r="234" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D234" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="235" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C235" t="s">
+    <row r="235" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D235" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="236" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C236" t="s">
+    <row r="236" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D236" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="237" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C237" t="s">
+    <row r="237" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D237" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="238" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C238" t="s">
+    <row r="238" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D238" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="239" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C239" t="s">
+    <row r="239" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D239" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="240" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C240" t="s">
+    <row r="240" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D240" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="241" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C241" t="s">
+    <row r="241" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="242" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C242" t="s">
+    <row r="242" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D242" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="243" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C243" t="s">
+    <row r="243" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D243" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="244" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C244" t="s">
+    <row r="244" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D244" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="245" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C245" t="s">
+    <row r="245" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D245" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="246" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C246" t="s">
+    <row r="246" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D246" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="247" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C247" t="s">
+    <row r="247" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D247" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C248" t="s">
+    <row r="248" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D248" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="249" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C249" t="s">
+    <row r="249" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D249" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="250" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C250" t="s">
+    <row r="250" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D250" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="251" spans="3:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C251" t="s">
+    <row r="251" spans="4:4" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D251" t="s">
         <v>285</v>
       </c>
     </row>
@@ -15953,18 +15966,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16177,18 +16190,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F56D760F-21D1-4377-9F1B-84BA0B2ECA29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{840501C0-5402-4260-A510-FD778922BA5D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{840501C0-5402-4260-A510-FD778922BA5D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F56D760F-21D1-4377-9F1B-84BA0B2ECA29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
